--- a/dev/texto_chile.xlsx
+++ b/dev/texto_chile.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,10 +385,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>categoria</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>sub_categoria</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion_categoria</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion_sub_categoria</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>detalle</t>
         </is>
@@ -396,7 +411,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -418,12 +433,12 @@
           <t>Américas</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Descripción General</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Chile es una democracia estable que ha experimentado una expansión significativa de los derechos políticos y las libertades civiles desde el regreso del gobierno civil en 1990. Las preocupaciones actuales incluyen la corrupción y los disturbios vinculados a las disputas de tierras con el pueblo indígena mapuche.</t>
         </is>
@@ -431,7 +446,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -453,20 +468,20 @@
           <t>Américas</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Desarrollos Clave</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>La Convención Constitucional, elegida para redactar una nueva constitución en 2021, publicó su propuesta final en julio. En septiembre, el 62 por ciento de los votantes rechazó la constitución progresista propuesta por la convención en un plebiscito nacional. Un estado de emergencia impuesto en partes del sur de Chile en 2021 debido a un conflicto violento entre las fuerzas gubernamentales y activistas indígenas mapuche se extendió hasta marzo. El recién inaugurado presidente Gabriel Boric impuso un nuevo estado de emergencia en las mismas zonas en mayo debido a un aumento de la violencia relacionada con el conflicto; el estado de emergencia se mantuvo hasta finales de año.</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>En mayo, los votantes chilenos eligieron a 51 concejales para redactar una nueva constitución basada en un texto preliminar elaborado por expertos designados por el Congreso a principios de año. A diferencia del anterior comité de proyecto constitucional, el Consejo Constitucional elegido en mayo contó con una importante mayoría conservadora. Los votantes rechazaron el proyecto de constitución propuesto por el Consejo Constitucional en un referéndum en diciembre. Tras el referéndum, el presidente Gabriel Boric dijo que la constitución existente se mantendría, cerrando así el proceso de reforma constitucional. Junio. El ministro de Desarrollo Social, Giorgio Jackson, dimitió debido a las consecuencias del escándalo de agosto; el caso seguía en curso al final del año.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -490,10 +505,25 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Derechos Políticos</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>¿El actual jefe de gobierno u otra autoridad nacional principal fue elegido mediante elecciones libres y justas?</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Las elecciones presidenciales en Chile son libres y justas. El presidente es elegido directamente por un período de cuatro años. No se permiten términos consecutivos. En diciembre de 2021, los chilenos eligieron a Gabriel Boric para la presidencia. Boric, un miembro de izquierda del Congreso, ganó la segunda vuelta de las elecciones con el 55,8 por ciento de los votos, convirtiéndose en el presidente electo más joven en la historia de Chile, a los 35 años. Prestó juramento en marzo de 2022.</t>
         </is>
@@ -501,7 +531,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -525,18 +555,33 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>La cámara alta, el Senado, tiene 50 escaños, y la cámara baja, la Cámara de Diputados, tiene 155 escaños; todos los miembros son elegidos directamente. Los senadores cumplen mandatos de ocho años, la mitad de los cuales se elige cada cuatro años, y los miembros de la Cámara de Diputados son elegidos para mandatos de cuatro años. En noviembre de 2021, los chilenos eligieron a 27 de 50 senadores y a los 155 miembros de la Cámara de Diputados. Ninguna coalición obtuvo la mayoría de escaños y ambas cámaras siguen siendo políticamente diversas.</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Derechos Políticos</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>¿Los actuales representantes legislativos nacionales fueron elegidos mediante elecciones libres y justas?</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>La cámara alta, el Senado, tiene 50 escaños, y la cámara baja, la Cámara de Diputados, tiene 155 escaños; todos los miembros son elegidos directamente. Los senadores cumplen mandatos de ocho años, la mitad de los cuales se elige cada cuatro años, y los miembros de la Cámara de Diputados son elegidos para mandatos de cuatro años. En noviembre de 2021, los chilenos eligieron a 27 de los 50 senadores y a los 155 miembros de la Cámara de Diputados. . Ninguna coalición obtuvo la mayoría de escaños y ambas cámaras siguen siendo políticamente diversas.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -560,18 +605,33 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>El marco electoral de Chile es sólido y en general está bien implementado. Un plebiscito nacional celebrado en octubre de 2020, organizado en respuesta a las protestas a gran escala celebradas el año anterior, desencadenó un proceso de reforma constitucional. En mayo de 2021, se eligió la Convención Constitucional de 155 miembros para redactar una nueva constitución; El organismo publicó su propuesta final en julio de 2022. En septiembre, el 62 por ciento de los votantes rechazó la constitución progresista propuesta en un plebiscito nacional. Los resultados de la votación fueron ampliamente aceptados como legítimos. En diciembre, los legisladores anunciaron que habían llegado a un acuerdo multipartidista para comenzar a trabajar en la redacción de una nueva constitución. El acuerdo prevé una comisión de 24 expertos, designados por el Congreso, para redactar el texto preliminar de una nueva constitución, que luego pasará a un nuevo Consejo Constitucional de 50 miembros, compuesto por 25 hombres y 25 mujeres que serán directamente elegido a mediados de 2023, para someterse a una nueva revisión. El acuerdo seguía esperando la aprobación del Congreso a finales de año. Está previsto que a finales de 2023 se celebre un plebiscito nacional sobre la adopción del nuevo proyecto de constitución.</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Derechos Políticos</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>¿Son las leyes y el marco electoral justos y los órganos de gestión electoral pertinentes los implementan de manera imparcial?</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>El marco electoral de Chile es sólido y en general está bien implementado. Un plebiscito nacional celebrado en octubre de 2020, organizado en respuesta a las protestas a gran escala celebradas el año anterior, desencadenó un proceso de reforma constitucional. En mayo de 2021, se eligió una Convención Constitucional de 155 miembros para redactar una nueva constitución; El organismo publicó su propuesta final en julio de 2022. La constitución propuesta, de tendencia izquierdista, fue rechazada por el 62 por ciento de los votantes en un plebiscito nacional en septiembre de 2022. En enero de 2023, el Congreso nombró una comisión de 24 expertos para redactar el texto preliminar de una nueva constitución. En mayo, los votantes eligieron 50 concejales (25 hombres y 25 mujeres) para redactar una nueva constitución basada en el texto preliminar de los expertos. Votar en las elecciones de mayo era obligatorio. En mayo también fue elegido un concejal número 51 en representación de la población indígena de Chile, luego de obtener el 1,5 por ciento del total de votos requerido para la incorporación de un representante indígena al consejo. El Partido Republicano (PLR), de extrema derecha, se convirtió en el partido más numeroso en el Consejo Constitucional tras las elecciones de mayo, obteniendo 23 de los 50 escaños disponibles, mientras que los partidos tradicionales de derecha obtuvieron otros 11 escaños. En total, el elemento político conservador de Chile tenía más de la mayoría de tres quintos del consejo necesaria para aprobar artículos, mientras que otros grupos políticos carecían de capacidad para vetarlos. El Consejo Constitucional, de mayoría conservadora, propuso el borrador final en noviembre. Fue rechazado en un referéndum constitucional en diciembre por casi el 56 por ciento de los votantes. Después del referéndum, en el que se produjo el segundo rechazo de una nueva constitución en poco más de un año, el presidente Boric puso fin al proyecto de reforma constitucional, diciendo que la constitución existente permanecería en vigor.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -595,18 +655,33 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Chile tiene un sistema político multipartidista en el que los partidos operan libremente. A partir de 2022, el Congreso incluye representantes de 19 partidos políticos, así como varios miembros independientes.</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pluralismo Político y Participación</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>¿Tiene el pueblo derecho a organizarse en diferentes partidos políticos u otras agrupaciones políticas competitivas de su elección, y está el sistema libre de obstáculos indebidos al ascenso y caída de estos partidos o agrupaciones en competencia?</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Chile tiene un sistema político multipartidista en el que los partidos operan libremente. A partir de 2023, el Congreso incluye representantes de 22 partidos políticos, así como varios miembros independientes.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -630,18 +705,33 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>La alternancia de poder entre partidos se produce periódicamente, tanto en el Congreso como en la presidencia. ¿Están las opciones políticas del pueblo libres del dominio de fuerzas externas a la esfera política o de fuerzas políticas que emplean medios extrapolíticos? 4.004 4.004 Las personas son generalmente libres de ejercer sus opciones políticas sin influencia indebida de actores que no son democráticamente responsables. Sin embargo, en los últimos años, organizaciones de extrema derecha como el Equipo Patriota y el Movimiento Social Patriota (MSP) han tratado de influir en la política chilena, al parecer incluso intentando ejercer presión sobre los políticos conservadores. ¿Tienen los diversos segmentos de la población (incluidos grupos étnicos, raciales, religiosos, de género, LGBT+ y otros grupos relevantes) plenos derechos políticos y oportunidades electorales? 3.003 4.004 La Convención Constitucional elegida en mayo de 2021 contó con la paridad de género entre sus 155 miembros y se reservaron 17 escaños para miembros de comunidades indígenas. El Consejo Constitucional que se elegirá en 2023 también contará con paridad de género entre sus 50 miembros, pero no tiene un número determinado de escaños reservados para representantes indígenas. Las mujeres están representadas en el gobierno y el sistema electoral incluye una cuota para mujeres en la legislatura. Sin embargo, las mujeres han informado de dificultades para ganar influencia en los debates internos del partido. El Presidente Boric ha hecho de la paridad de género un foco central de su administración; su primer gabinete, anunciado en enero de 2022, estuvo integrado por 14 mujeres y 10 hombres. Tras los cambios realizados dentro del gobierno en septiembre, el gabinete de Boric estaba compuesto por 15 mujeres y 9 hombres. Los intereses de la minoría mapuche, que representa alrededor del 9 por ciento de la población, están presentes en la vida política, y los activistas mapuche regularmente hacen oír su voz en manifestaciones callejeras. Sin embargo, este activismo aún tiene que traducirse en un poder legislativo significativo. Los miembros de la comunidad LGBT+ están organizados en organizaciones de la sociedad civil, pero pocos son elegidos para cargos políticos.</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pluralismo Político y Participación</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>¿Existe una oportunidad realista para que la oposición aumente su apoyo o gane poder mediante elecciones?</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>La alternancia de poder entre partidos se produce periódicamente, tanto en el Congreso como en la presidencia.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -665,18 +755,33 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Si bien existen grupos de presión y de interés que trabajan para dar forma a las políticas, hay poca intervención significativa por parte de actores que no son democráticamente responsables en los procesos de formulación de políticas.</t>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pluralismo Político y Participación</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>¿Están las opciones políticas del pueblo libres de la dominación de los militares, las potencias extranjeras, las jerarquías religiosas, las oligarquías económicas o cualquier otro grupo poderoso que no sea democráticamente responsable?</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>En general, las personas son libres de ejercer sus opciones políticas sin influencia indebida de actores que no son democráticamente responsables. Sin embargo, la mayor polarización política en los últimos años ha visto el surgimiento de movimientos de extrema derecha como el Equipo Patriota y el Movimiento Social Patriota (MSP), así como la creación del PLR de extrema derecha en 2019.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -700,18 +805,33 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Las leyes anticorrupción generalmente se aplican, aunque con cierta regularidad surgen escándalos de corrupción de alto nivel. En marzo de 2022, Ricardo Martínez, entonces comandante en jefe del ejército, renunció un día antes de testificar en el llamado caso Milicogate, una serie de escándalos de corrupción que involucraron a oficiales militares que utilizaron acuerdos de adquisiciones falsos para malversar fondos públicos entre 2010 y 2019. En abril de 2022, Martínez fue puesto bajo arresto preventivo en relación con la investigación Milicogate; fue acusado de ocho cargos de fraude, pero se le concedió la libertad bajo fianza poco después de su arresto. El tribunal militar revocó la acusación en agosto y el Tribunal Supremo rechazó una apelación contra la acción del tribunal militar ese mismo mes.</t>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pluralismo Político y Participación</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>¿Tienen los diversos segmentos de la población (incluidos grupos étnicos, religiosos, de género, LGBT y otros grupos relevantes) plenos derechos políticos y oportunidades electorales?</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>El Consejo Constitucional elegido en mayo de 2023 contó con la paridad de género entre sus 50 miembros, pero no se reservó automáticamente ningún escaño para los pueblos indígenas. Sin embargo, reglas especiales favorecían la elección de al menos un representante indígena del consejo; Alihuén Antileo Navarrete, un abogado mapuche, fue elegido como el miembro número 51 del consejo para representar a los pueblos indígenas de Chile, que representan aproximadamente el 13 por ciento de la población del país. Las mujeres están representadas en el gobierno y el sistema electoral incluye una cuota para mujeres en la legislatura. Sin embargo, las mujeres han informado de dificultades para ganar influencia en los debates internos del partido. El Presidente Boric ha hecho de la paridad de género un foco central de su administración; su primer gabinete, anunciado en enero de 2022, estuvo integrado por 14 mujeres y 10 hombres. Boric reorganizó el gabinete dos veces en 2023 y, a finales de año, estaba compuesto por 13 mujeres y 11 hombres. Los intereses de la minoría indígena mapuche, que representa alrededor del 9 por ciento de la población, están presentes en la vida política, con activistas mapuche regularmente hacen oír su voz en manifestaciones callejeras. Sin embargo, este activismo aún tiene que traducirse en un poder legislativo significativo. Los miembros de la comunidad LGBT+ están organizados en organizaciones de la sociedad civil, pero pocos son elegidos para cargos políticos.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -735,18 +855,33 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>El gobierno opera con relativa transparencia. En 2009 entró en vigor la Ley de Transparencia y Acceso a la Información Pública; aumentó el acceso público a la información y creó un Consejo de Transparencia. En general, las agencias han respondido a las solicitudes de información. En 2019, el gobierno reemplazó la Ley del Cobre, que databa de décadas de antigüedad, lo que se consideró un paso importante hacia la mejora de la transparencia a raíz de una serie de escándalos de corrupción que involucraban a las fuerzas armadas. La legislación anterior estipulaba que el 10 por ciento de las ventas de exportación del gigante estatal del cobre Codelco se canalizarían a las fuerzas armadas sin supervisión.</t>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Funcionamiento del Gobierno</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>¿El jefe de gobierno elegido libremente y los representantes legislativos nacionales determinan las políticas del gobierno?</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Si bien existen grupos de presión y de interés que trabajan para dar forma a las políticas, hay poca intervención significativa por parte de actores que no son democráticamente responsables en los procesos de formulación de políticas.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -770,18 +905,33 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>En general, se respetan las garantías de libertad de expresión, aunque algunas leyes que prohíben la difamación de las instituciones estatales siguen vigentes. La propiedad de los medios está muy concentrada. Varios periodistas denunciaron haber sufrido acoso y agresiones, incluso por parte de la policía, durante 2022. En mayo, tres periodistas resultaron heridos mientras cubrían una protesta en Santiago, incluida Francisca Sandoval, quien recibió disparos de hombres armados que abrieron fuego contra la manifestación. Sandoval murió más tarde a causa de sus heridas, convirtiéndose en el primer periodista asesinado en cumplimiento de su deber desde la era Pinochet.</t>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Funcionamiento del Gobierno</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>¿Son fuertes y efectivas las salvaguardias contra la corrupción oficial?</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Las leyes anticorrupción generalmente se aplican, aunque con cierta regularidad surgen escándalos de corrupción de alto nivel. En junio de 2023, surgió un escándalo relacionado con una transferencia de fondos públicos a Democracia Viva, una organización de la sociedad civil con estrechos vínculos con el partido Revolución Democrática (RD). Los informes de los medios de comunicación de ese mes revelaron que Democracia Viva había celebrado tres contratos con el gobierno por un total de 426 millones de pesos (530.000 dólares). Al momento de los acuerdos, Democracia Viva estaba encabezada por Daniel Andrade, socio de la expresidenta de RD Catalina Pérez, mientras que el ministro regional que asignó los contratos a Democracia Viva, Carlos Contreras, era exjefe de gabinete de Pérez, lo que generó acusaciones de irregularidades. . Durante el año surgieron más pruebas de malversación de fondos públicos y adjudicación irregular de contratos a ONG vinculadas a partidos políticos, y en agosto, el Ministerio Público anunció que estaba investigando 32 fundaciones por posible malversación de fondos, malversación de fondos y tráfico de influencias, entre otras cosas. El ministro de Desarrollo Social, Giorgio Jackson, dimitió debido a las consecuencias del escándalo el mismo mes; Andrade y Contreras fueron arrestados por su presunto papel en el escándalo Democracia Viva en diciembre. En noviembre, el Ministerio Público inició otra investigación por corrupción después de que los medios publicaran una grabación de audio del destacado abogado penalista Luis Hermosilla discutiendo posibles sobornos de alto perfil de Impuestos Internos. Funcionarios de la Comisión de Servicios y Mercado Financiero. En marzo de 2022, Ricardo Martínez, entonces comandante en jefe del ejército, renunció un día antes de testificar en el llamado caso Milicogate, una serie de escándalos de corrupción que involucraron a oficiales militares que utilizaron acuerdos de adquisiciones falsos para malversar fondos públicos entre 2010 y 2019. Martínez fue acusado de ocho cargos de fraude en abril de 2022, pero se le concedió la libertad bajo fianza poco después de su arresto.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -805,18 +955,33 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>La constitución establece la libertad religiosa y el gobierno generalmente defiende este derecho en la práctica.</t>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Funcionamiento del Gobierno</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>¿El gobierno opera con apertura y transparencia?</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>El gobierno opera con relativa transparencia. En 2009 entró en vigor la Ley de Transparencia y Acceso a la Información Pública; aumentó el acceso público a la información y creó un Consejo de Transparencia. En general, las agencias han respondido a las solicitudes de información.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -840,18 +1005,33 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>La libertad académica generalmente no tiene restricciones en Chile.</t>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Libertad de Expresión y Culto</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>¿Existen medios de comunicación libres e independientes?</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>En general, se respetan las garantías de libertad de expresión, aunque algunas leyes que prohíben la difamación de las instituciones estatales siguen vigentes. La propiedad de los medios está muy concentrada. Varios periodistas han informado que han sufrido acoso y agresiones, incluso por parte de la policía. En mayo de 2022, tres periodistas resultaron heridos mientras cubrían una protesta en Santiago, entre ellos Francisca Sandoval, quien fue baleada por sicarios que abrieron fuego contra la manifestación. Sandoval murió más tarde a causa de sus heridas, convirtiéndose en el primer periodista asesinado en cumplimiento de su deber desde la era Pinochet.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -875,18 +1055,33 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Los chilenos disfrutan de debates privados abiertos y gratuitos.</t>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Libertad de Expresión y Culto</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>¿Son los individuos libres de practicar y expresar su fe o no creencia religiosa en público y en privado?</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>La constitución establece la libertad religiosa y el gobierno generalmente defiende este derecho en la práctica.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -910,18 +1105,33 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tradicionalmente se ha respetado el derecho de reunión pacífica. Sin embargo, la actividad de protesta pacífica que surgió en 2019, cuando la gente salió a las calles para manifestarse contra el gobierno y contra la desigualdad social, se vio gravemente perturbada por una variedad de factores, entre ellos personas que aprovecharon la cobertura del movimiento de protesta para participar en saqueos e incendios provocados. y vandalismo; y por la violencia policial generalizada y un estado de emergencia restrictivo que se impuso en respuesta a los disturbios. Durante 2022 se llevaron a cabo varias protestas, incluidas varias manifestaciones contra el aumento de la inflación y la persistente desigualdad. Aunque algunas manifestaciones incluyeron violencia tanto por parte de los manifestantes como de las fuerzas del orden, tanto la violencia civil como la represión policial han disminuido significativamente desde 2019. ¿Existe libertad para las organizaciones no gubernamentales, en particular aquellas que se dedican a trabajos relacionados con los derechos humanos y la gobernanza? 4.004 4.004 Organizaciones no gubernamentales (ONG) se forman y operan sin interferencias.</t>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Libertad de Expresión y Culto</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>¿Existe libertad académica y el sistema educativo está libre de un amplio adoctrinamiento político?</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>La libertad académica generalmente no tiene restricciones en Chile.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -945,18 +1155,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Existen leyes estrictas que protegen los derechos de los trabajadores y de los sindicatos, pero se siguen denunciando algunas prácticas antisindicales limitadas por parte de los empleadores del sector privado.</t>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Libertad de Expresión y Culto</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>¿Son las personas libres de expresar sus opiniones personales sobre temas políticos u otros temas delicados sin temor a vigilancia o represalias?</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Los chilenos disfrutan de debates privados abiertos y gratuitos.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -980,18 +1205,33 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>La constitución prevé un poder judicial independiente y los tribunales, en general, están libres de interferencia política.</t>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Derechos Asociativos y Organizacionales</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>¿Existe libertad de reunión?</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Tradicionalmente se ha respetado el derecho de reunión pacífica. Sin embargo, la actividad de protesta pacífica que surgió en 2019, cuando la gente salió a las calles para manifestarse contra el gobierno y la desigualdad social, se vio gravemente perturbada por personas que aprovecharon la cobertura del movimiento de protesta para participar en saqueos, incendios provocados y vandalismo; y por la violencia policial generalizada y un estado de emergencia restrictivo impuesto en respuesta a los disturbios. Durante 2023 se realizaron menos protestas que en años anteriores. Aunque algunas manifestaciones incluyeron violencia tanto por parte de los manifestantes como de las fuerzas del orden, tanto la violencia civil como la represión policial han disminuido significativamente desde 2019.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1015,18 +1255,33 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>El derecho a asistencia letrada está garantizado constitucionalmente y generalmente prevalece el debido proceso en asuntos civiles y penales. Sin embargo, los acusados ​​indigentes no siempre reciben una representación legal efectiva. Grupos de derechos humanos y las Naciones Unidas han criticado el uso por parte del gobierno de leyes antiterroristas, que no garantizan el debido proceso, para procesar actos de violencia cometidos por activistas mapuche.</t>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Derechos Asociativos y Organizacionales</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>¿Existe libertad para las organizaciones no gubernamentales, en particular aquellas que se dedican a trabajos relacionados con los derechos humanos y la gobernanza?</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Las organizaciones no gubernamentales (ONG) se forman y operan sin interferencias.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1050,18 +1305,33 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Si bien el gobierno ha desarrollado mecanismos para investigar y castigar los abusos policiales, todavía ocurren abusos de fuerza excesiva y de derechos humanos cometidos por los carabineros (la policía nacional), y dichos abusos se intensificaron durante la agitación social que comenzó en 2019. Protestas, vandalismo y policía El uso excesivo de la fuerza se produjo esporádicamente a lo largo de 2022, pero no alcanzó la intensidad de los disturbios vistos en 2019. El Instituto Nacional de Derechos Humanos (INDH), Human Rights Watch (HRW) y Amnistía Internacional del gobierno han acusado a los carabineros y militares. de perpetrar violaciones de derechos humanos durante las protestas de 2019, incluido el uso excesivo de la fuerza contra los manifestantes, así como tortura y abuso sexual de personas detenidas. La administración Boric estableció una comisión de reforma policial y una unidad asesora de reforma en agosto de 2022. El conflicto entre el pueblo indígena mapuche y el Estado chileno continuó durante todo 2022. Según se informa, los disturbios se caracterizaron por una violencia creciente por parte de algunos activistas mapuche, incluido el uso de ataques incendiarios contra terratenientes y trabajadores forestales. En octubre de 2021, el entonces presidente Sebastián Piñera declaró el estado de emergencia en las regiones de la Araucanía y Biobío en respuesta a violentos enfrentamientos entre fuerzas de seguridad y activistas mapuche. El estado de emergencia se prorrogó varias veces hasta que el presidente Boric asumió el cargo en marzo de 2022. En respuesta al aumento de la violencia y los bloqueos de carreteras, el presidente Boric impuso un nuevo estado de emergencia en las mismas zonas en mayo; El nuevo estado de emergencia, que al parecer tiene un alcance más limitado que el de Piñera, se mantuvo vigente hasta finales de año. Aunque Chile tiene una de las tasas de delitos violentos más bajas de América Latina, el país registró un mayor nivel de delitos violentos durante 2022. Según estadísticas policiales, la tasa de homicidios creció más del 32 por ciento entre 2021 y 2022. Los delitos violentos relacionados con El tráfico de drogas también es motivo de preocupación, particularmente en la región de Tarapacá.</t>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Derechos Asociativos y Organizacionales</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>¿Existe libertad para los sindicatos y organizaciones profesionales o laborales similares?</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Existen leyes estrictas que protegen los derechos de los trabajadores y de los sindicatos, pero se siguen denunciando algunas prácticas antisindicales limitadas por parte de los empleadores del sector privado.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1085,18 +1355,33 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Si bien los pueblos indígenas todavía sufren discriminación social y brutalidad policial, sus niveles de pobreza han disminuido un poco, ayudados por becas gubernamentales, transferencias de tierras y gasto social. Las personas LGBT+ siguen enfrentándose a prejuicios sociales, a pesar de una ley contra la discriminación de 2012 que cubre la orientación sexual y la identidad de género. En 2018, el presidente firmó una ley de identidad de género que permite cambiar la identidad de género en el registro civil. En la práctica, las elites se benefician de un trato legal favorable sistemático.</t>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Imperio de la Ley</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>¿Existe un poder judicial independiente?</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>La constitución prevé un poder judicial independiente y los tribunales, en general, están libres de interferencia política.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1120,18 +1405,33 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>La constitución protege la libertad de movimiento y el gobierno respeta este derecho en la práctica. Durante 2022, la libertad de movimiento se vio afectada en ocasiones por el conflicto en curso entre el pueblo mapuche y el gobierno en partes del sur de Chile. Entre otras cosas, el conflicto continuo provocó que los activistas mapuche levantaran barricadas y barricadas en las carreteras durante el año; un estado de emergencia impuesto en mayo y extendido hasta finales de año permitió a los militares proteger las carreteras y rutas de tránsito en la zona del conflicto. En noviembre, el presidente Boric anunció la creación de una comisión de paz y reconciliación destinada a resolver el conflicto, en parte devolviendo algunas tierras ancestrales a las comunidades indígenas.</t>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Imperio de la Ley</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>¿Prevalece el debido proceso en materia civil y penal?</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>El derecho a asistencia letrada está garantizado constitucionalmente y, en general, prevalece el debido proceso en asuntos civiles y penales. Sin embargo, los acusados ​​indigentes no siempre reciben una representación legal adecuada. Grupos de derechos humanos y las Naciones Unidas han criticado el uso por parte del gobierno de leyes antiterroristas, que no garantizan el debido proceso, para procesar actos de violencia cometidos por activistas mapuche.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1155,18 +1455,33 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>G2</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Los individuos generalmente tienen derecho a poseer propiedades y a establecer y operar negocios privados, y lo hacen sin interferencia del gobierno u otros actores. Sin embargo, los activistas mapuche continúan exigiendo mayores derechos territoriales sobre la tierra, las aguas ancestrales y los recursos naturales.</t>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Imperio de la Ley</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>¿Existe protección contra el uso ilegítimo de la fuerza física y libertad frente a guerras e insurgencias?</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Si bien el gobierno ha desarrollado mecanismos para investigar y castigar los abusos policiales, todavía ocurren abusos de fuerza excesiva y de derechos humanos cometidos por los carabineros (la policía nacional), y dichos abusos se intensificaron durante la agitación social que comenzó en 2019. El Instituto Nacional de Derechos Humanos del gobierno Derechos Humanos (INDH), Human Rights Watch (HRW) y Amnistía Internacional acusaron a carabineros y militares de perpetrar violaciones de derechos humanos durante las protestas de 2019, incluido el uso excesivo de la fuerza contra manifestantes, así como torturas y abusos sexuales a personas detenidas en detención. La administración Boric estableció una comisión de reforma policial y una unidad asesora de reforma en agosto de 2022. Sin embargo, no se informó de avances significativos en 2023, y ha persistido la impunidad para las fuerzas de seguridad acusadas de violaciones de derechos humanos durante los disturbios sociales. En junio, el gobierno anunció que enviaría un proyecto de ley al Congreso que preveía el establecimiento de un Ministerio de Seguridad Pública independiente, que supervisaría el proceso de reforma policial. El conflicto entre el pueblo indígena mapuche y el Estado chileno continuó en 2023. Según se informa, los disturbios Se destacó la violencia por parte de algunos activistas mapuches, incluido el uso de ataques incendiarios contra terratenientes y trabajadores forestales. En octubre de 2021, el entonces presidente Sebastián Piñera declaró el estado de emergencia en las regiones de la Araucanía y Biobío en respuesta a enfrentamientos violentos entre fuerzas de seguridad y activistas mapuche. El estado de emergencia se prorrogó varias veces hasta que el presidente Boric asumió el cargo en marzo de 2022. En respuesta a la violencia y los bloqueos de carreteras continuos, el presidente Boric impuso un nuevo estado de emergencia en las mismas zonas en mayo de ese año; el nuevo estado de emergencia, que tiene un alcance más limitado que el de Piñera, se ha mantenido desde entonces. Aunque Chile tiene una de las tasas de delitos violentos más bajas de América Latina, el país registró un mayor nivel de delitos violentos en 2022 y 2023 según un informe gubernamental de julio de 2023. Según las estadísticas policiales, la tasa de homicidios creció más del 32 por ciento entre 2021 y 2022. Los delitos violentos relacionados con el tráfico de drogas también son una importante preocupación para la opinión pública. Varios agentes de policía murieron mientras estaban de servicio durante 2023. El Congreso respondió aprobando una legislación contra el crimen que otorga a la policía nuevos derechos de autodefensa, es decir, si los agentes de policía usan sus armas en defensa propia, la ley presumirá que lo han hecho. según principios profesionales", según la ministra del Interior, Carolina Tohá. Los defensores de los derechos humanos han criticado la nueva ley, en particular la presunción automática de legítima defensa, que según la Oficina del Alto Comisionado de las Naciones Unidas para los Derechos Humanos (ACNUDH) "reduce la rendición de cuentas, dificulta el acceso a la justicia de las víctimas de posibles abusos y favorece la impunidad". ".</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1190,18 +1505,33 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>El gobierno generalmente no restringe las libertades sociales personales. La violencia contra los niños y las mujeres sigue siendo un problema. En 2010 entró en vigor una ley contra el feminicidio. El gobierno reportó 43 feminicidios y 180 intentos de feminicidio en 2022. En 2017 entró en vigor una legislación que despenalizaba el aborto en casos de violación, feto inviable o peligro para la vida de la mujer. En 2021, el Congreso aprobó el matrimonio entre personas del mismo sexo por abrumadora mayoría; la ley entró en vigor en marzo de 2022. Anteriormente, una ley de 2015 reconocía las uniones civiles de parejas del mismo sexo.</t>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Imperio de la Ley</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>¿Las leyes, políticas y prácticas garantizan un trato igualitario a diversos segmentos de la población?</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Si bien los pueblos indígenas todavía sufren discriminación social y brutalidad policial, sus niveles de pobreza han disminuido un poco, ayudados por becas gubernamentales, transferencias de tierras y gasto social. Las personas LGBT+ continúan enfrentándose a prejuicios sociales, a pesar de una ley antidiscriminación de 2012 que cubre la orientación sexual y la identidad de género. . En 2018, el presidente firmó una ley de identidad de género que permite cambiar la identidad de género en el registro civil. En la práctica, las élites se benefician de un trato legal favorable sistemático.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1225,10 +1555,175 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Autonomía Personal y Derechos Individuales</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>¿Gozan las personas de libertad de movimiento, incluida la posibilidad de cambiar su lugar de residencia, empleo o educación?</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>La constitución protege la libertad de movimiento y el gobierno respeta este derecho en la práctica. Durante 2023, la libertad de movimiento se vio afectada en ocasiones por el conflicto en curso entre el pueblo indígena mapuche y el gobierno en partes del sur de Chile. Desde mayo de 2022 está en vigor un estado de emergencia que permite a los militares proteger las carreteras y rutas de tránsito en la zona del conflicto. En junio de 2023, el presidente Boric puso en marcha la Comisión Presidencial para la Paz y el Entendimiento para tratar de resolver el conflicto. La comisión tiene ocho miembros, incluidos cuatro representantes del pueblo mapuche, que se espera que presenten un informe a finales de 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Américas</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Autonomía Personal y Derechos Individuales</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>¿Pueden los individuos ejercer el derecho a poseer propiedades y establecer negocios privados sin interferencias indebidas de actores estatales o no estatales?</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Los individuos generalmente tienen derecho a poseer propiedades y a establecer y operar negocios privados, y lo hacen sin interferencia del gobierno u otros actores. Sin embargo, los activistas mapuche continúan exigiendo mayores derechos territoriales sobre la tierra, las aguas ancestrales y los recursos naturales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Américas</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Autonomía Personal y Derechos Individuales</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>¿Disfrutan los individuos de libertades sociales personales, incluida la elección de cónyuge y el tamaño de la familia, la protección contra la violencia doméstica y el control sobre la apariencia?</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Por lo general, el gobierno no restringe las libertades sociales personales. La violencia contra los niños y las mujeres sigue siendo un problema. En 2010 entró en vigor una ley contra el feminicidio. El gobierno reportó 42 feminicidios y 259 intentos de feminicidio en 2023. En 2017 entró en vigor una legislación que despenaliza el aborto en casos de violación, feto inviable o peligro para la vida de la mujer. En 2021, el Congreso aprobó el matrimonio entre personas del mismo sexo por abrumadora mayoría; la ley entró en vigor en marzo de 2022. Anteriormente, una ley de 2015 reconocía las uniones civiles de parejas del mismo sexo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Américas</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>G4</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Autonomía Personal y Derechos Individuales</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>¿Existe igualdad de oportunidades y ausencia de explotación económica?</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>Si bien el trabajo obligatorio es ilegal, el trabajo forzoso, particularmente entre ciudadanos extranjeros, continúa ocurriendo en los sectores de la agricultura, la minería y el servicio doméstico. Aunque ha habido mejoras en la lucha contra el trabajo infantil, los menores todavía sufren explotación sexual comercial y trabajan sin protección en el sector agrícola. sector. La información pública sobre el trabajo infantil forzoso es limitada.</t>
         </is>
